--- a/Tester 개발 스케쥴 (클라이언트).xlsx
+++ b/Tester 개발 스케쥴 (클라이언트).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jihoo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unreal\Unreal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -142,195 +142,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>컷신 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 및 버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표 준비 및 발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/28 ~ 6/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/17 ~ 7/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 스테이지 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 스테이지 맵 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 스테이지 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 스테이지 맵 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 스테이지 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 스테이지 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 스테이지 맵 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 스테이지 맵 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 스테이지 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 스테이지 맵 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 스테이지 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 스테이지 맵 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 스테이지 맵 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 스테이지 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 스테이지 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 스테이지 맵 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 스테이지 맵 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 스테이지 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B:IB:I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 스테이지 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 스테이지 맵 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 스테이지 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 스테이지 맵 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 스테이지 맵 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 스테이지 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 스테이지 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 스테이지 맵 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 스테이지 맵 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컷신 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컷신 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 및 버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 및 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 및 버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 스테이지 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 스테이지 맵 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 스테이지 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 스테이지 맵 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 스테이지 맵 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 스테이지 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>멀티 플레이 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>컷신 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 및 버그 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발표 준비 및 발표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/28 ~ 6/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7/17 ~ 7/23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3 스테이지 기능 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3 스테이지 맵 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 스테이지 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 스테이지 맵 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 스테이지 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 스테이지 맵 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 스테이지 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 스테이지 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 스테이지 맵 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 스테이지 맵 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 스테이지 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 스테이지 맵 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 스테이지 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 스테이지 맵 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 스테이지 맵 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 스테이지 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 스테이지 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 스테이지 맵 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 스테이지 맵 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 스테이지 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B:IB:I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 스테이지 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 스테이지 맵 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 스테이지 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 스테이지 맵 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 스테이지 맵 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 스테이지 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 스테이지 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 스테이지 맵 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 스테이지 맵 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사운드 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컷신 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컷신 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 및 버그 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 및 정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 및 버그 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 스테이지 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 스테이지 맵 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 스테이지 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 스테이지 맵 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 스테이지 맵 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 스테이지 기능 구현</t>
+    <t>3 스테이지 기능 구현, 맵 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,7 +681,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -733,7 +733,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -937,21 +937,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0.375" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="9" width="23.625" customWidth="1"/>
+    <col min="3" max="9" width="28.625" customWidth="1"/>
     <col min="10" max="12" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="2:9" s="13" customFormat="1" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -985,10 +985,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1001,10 +1001,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1017,10 +1017,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1033,10 +1033,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -1049,10 +1049,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -1065,10 +1065,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1081,10 +1081,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -1097,10 +1097,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1113,10 +1113,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -1129,10 +1129,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1145,10 +1145,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -1161,10 +1161,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -1177,7 +1177,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1191,10 +1191,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1207,7 +1207,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1221,10 +1221,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="10"/>
@@ -1234,13 +1234,13 @@
     </row>
     <row r="20" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="10"/>
@@ -1253,10 +1253,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="10"/>
@@ -1269,10 +1269,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="10"/>
@@ -1285,10 +1285,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="10"/>
@@ -1301,10 +1301,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="10"/>
@@ -1317,10 +1317,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="10"/>
@@ -1333,10 +1333,10 @@
         <v>23</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="10"/>
@@ -1346,13 +1346,13 @@
     </row>
     <row r="27" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="10"/>
@@ -1365,10 +1365,10 @@
         <v>24</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="10"/>
@@ -1381,10 +1381,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="10"/>
@@ -1397,7 +1397,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -1411,7 +1411,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
